--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Eng.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp10</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp10</t>
-  </si>
-  <si>
-    <t>Eng</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H2">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N2">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q2">
-        <v>95.29031576610933</v>
+        <v>88.50744516572533</v>
       </c>
       <c r="R2">
-        <v>571.7418945966559</v>
+        <v>531.044670994352</v>
       </c>
       <c r="S2">
-        <v>0.306906939287963</v>
+        <v>0.4293674676152208</v>
       </c>
       <c r="T2">
-        <v>0.2509091696805089</v>
+        <v>0.3958274437603108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H3">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q3">
-        <v>15.32312512570467</v>
+        <v>15.36626624198133</v>
       </c>
       <c r="R3">
-        <v>137.908126131342</v>
+        <v>138.296396177832</v>
       </c>
       <c r="S3">
-        <v>0.04935206054096294</v>
+        <v>0.07454485677071358</v>
       </c>
       <c r="T3">
-        <v>0.06052103885831336</v>
+        <v>0.1030826820610665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H4">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N4">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q4">
-        <v>2.932339124713445</v>
+        <v>1.215306215554222</v>
       </c>
       <c r="R4">
-        <v>26.39105212242101</v>
+        <v>10.937755939988</v>
       </c>
       <c r="S4">
-        <v>0.009444351385392548</v>
+        <v>0.005895695567446195</v>
       </c>
       <c r="T4">
-        <v>0.0115817242668619</v>
+        <v>0.008152730289323725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H5">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N5">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q5">
-        <v>3.629986258669167</v>
+        <v>6.896417402223999</v>
       </c>
       <c r="R5">
-        <v>21.779917552015</v>
+        <v>41.378504413344</v>
       </c>
       <c r="S5">
-        <v>0.01169130318593974</v>
+        <v>0.03345591176048485</v>
       </c>
       <c r="T5">
-        <v>0.009558125931179559</v>
+        <v>0.03084250445050204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H6">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N6">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q6">
-        <v>58.38965073815302</v>
+        <v>0.7229282689724443</v>
       </c>
       <c r="R6">
-        <v>525.5068566433771</v>
+        <v>6.506354420751999</v>
       </c>
       <c r="S6">
-        <v>0.1880588688374683</v>
+        <v>0.003507070840593615</v>
       </c>
       <c r="T6">
-        <v>0.2306189039283587</v>
+        <v>0.004849674197356276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H7">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N7">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q7">
-        <v>3.106832516033556</v>
+        <v>2.162408303476444</v>
       </c>
       <c r="R7">
-        <v>27.961492644302</v>
+        <v>19.461674731288</v>
       </c>
       <c r="S7">
-        <v>0.01000635217451239</v>
+        <v>0.01049027881750854</v>
       </c>
       <c r="T7">
-        <v>0.01227091274701651</v>
+        <v>0.01450624661340833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H8">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I8">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J8">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N8">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O8">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P8">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q8">
-        <v>70.29953652002399</v>
+        <v>70.31831238165266</v>
       </c>
       <c r="R8">
-        <v>421.797219120144</v>
+        <v>421.909874289916</v>
       </c>
       <c r="S8">
-        <v>0.2264177153078171</v>
+        <v>0.3411283159032851</v>
       </c>
       <c r="T8">
-        <v>0.1851058861055553</v>
+        <v>0.3144810901213012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H9">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I9">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J9">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P9">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q9">
-        <v>11.304491812362</v>
+        <v>12.20835046950067</v>
       </c>
       <c r="R9">
-        <v>101.740426311258</v>
+        <v>109.875154225506</v>
       </c>
       <c r="S9">
-        <v>0.03640901968310808</v>
+        <v>0.05922517043660545</v>
       </c>
       <c r="T9">
-        <v>0.04464882865844139</v>
+        <v>0.08189819765711295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H10">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I10">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J10">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N10">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O10">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P10">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q10">
-        <v>2.163305680431</v>
+        <v>0.9655490783254445</v>
       </c>
       <c r="R10">
-        <v>19.469751123879</v>
+        <v>8.689941704929002</v>
       </c>
       <c r="S10">
-        <v>0.006967481635331878</v>
+        <v>0.004684073321092219</v>
       </c>
       <c r="T10">
-        <v>0.008544308427537799</v>
+        <v>0.006477265660245647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H11">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I11">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J11">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N11">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O11">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P11">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q11">
-        <v>2.6779883087475</v>
+        <v>5.479137176491999</v>
       </c>
       <c r="R11">
-        <v>16.067929852485</v>
+        <v>32.874823058952</v>
       </c>
       <c r="S11">
-        <v>0.008625149247106974</v>
+        <v>0.0265803995334148</v>
       </c>
       <c r="T11">
-        <v>0.007051417739145776</v>
+        <v>0.02450407260679562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H12">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I12">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J12">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N12">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O12">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P12">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q12">
-        <v>43.076417067747</v>
+        <v>0.5743595440128889</v>
       </c>
       <c r="R12">
-        <v>387.687753609723</v>
+        <v>5.169235896116001</v>
       </c>
       <c r="S12">
-        <v>0.1387386662691273</v>
+        <v>0.002786333990905295</v>
       </c>
       <c r="T12">
-        <v>0.1701369328937161</v>
+        <v>0.003853019421365021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H13">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I13">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J13">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N13">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O13">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P13">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q13">
-        <v>2.292036542922</v>
+        <v>1.718012561494889</v>
       </c>
       <c r="R13">
-        <v>20.628328886298</v>
+        <v>15.462113053454</v>
       </c>
       <c r="S13">
-        <v>0.007382092445269647</v>
+        <v>0.008334425442729408</v>
       </c>
       <c r="T13">
-        <v>0.009052750763364755</v>
+        <v>0.01152507316121194</v>
       </c>
     </row>
   </sheetData>
